--- a/DTT-Assessment-Hour-Log - EUNIKE.xlsx
+++ b/DTT-Assessment-Hour-Log - EUNIKE.xlsx
@@ -92,7 +92,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">2. Created 'HomeView' </t>
+      <t>2. Created 'HomeView' page, a page that displays an overview of available houses.</t>
     </r>
     <r>
       <rPr>
@@ -102,8 +102,7 @@
       </rPr>
       <t xml:space="preserve">
 - Added template, script, and style. 
-- Used dummy data. 
-- Navigated 'HomeView' to the 'HouseCard' component. 
+- Used dummy data.
 - Modified RouterLink. 
 </t>
     </r>
@@ -114,7 +113,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">3. Created 'HouseCard' component. 
+      <t xml:space="preserve">3. Created 'HouseCard' component, a card that shows the summary of every house.
 </t>
     </r>
     <r>
@@ -123,7 +122,8 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>- Added template, script, and style</t>
+      <t xml:space="preserve">- Added template, script, and style
+- Navigated 'HomeView' to the 'HouseCard' component. </t>
     </r>
   </si>
   <si>
@@ -206,7 +206,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>1. Created 'TheHeader' component.</t>
+      <t>1. Created 'TheHeader' component. The page header consists navigation for the current page and logo of the company.</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +225,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>2. Created 'HouseDetailView'</t>
+      <t>2. Created 'HouseDetailView' page, a page that displays all the details of the house</t>
     </r>
     <r>
       <rPr>
@@ -339,7 +339,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">2. Created 'NewListingView' </t>
+      <t>2. Created 'NewListingView' page. This page displays all the information that the user has to fill in to create a new house listing.</t>
     </r>
     <r>
       <rPr>
@@ -349,9 +349,8 @@
       </rPr>
       <t xml:space="preserve">
 - Set up routing.
-- Modifed 'HomeView' to navigate to 'CreateListingView' when the "CREATE NEW" button is clicked.
+- Modifed 'HomeView' to navigate to 'NewListingView' when the "CREATE NEW" button is clicked.
 - Edited the style of 'NewListingView'.
-- Used 'TheForm component'
 </t>
     </r>
     <r>
@@ -361,7 +360,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>3. Created 'EditListingView'.</t>
+      <t>3. Created 'EditListingView' page, where user can edit the details of the house.</t>
     </r>
     <r>
       <rPr>
@@ -370,10 +369,9 @@
         <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve">
-- Duplicated it from 'NewListingView'.
+- Duplicated the template, script and style from 'NewListingView'.
 - Modified 'HomeView' and 'HouseCard' to navigate to 'EditListingView' when the "edit" button is clicked.
 - Set up routing.
-- Used 'TheForm component'
 </t>
     </r>
     <r>
@@ -391,7 +389,8 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve"> to handle the form and include it in the 'NewListingView' component and 'EditListingView' component</t>
+      <t xml:space="preserve"> to handle the form and include it in the 'NewListingView' component and 'EditListingView' component
+- Added 'required' property for all required input fields. This also make a validation error appeared in the form.</t>
     </r>
   </si>
   <si>
@@ -408,18 +407,18 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>1. Created 'DeleteListing' modal.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Open Sans"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- Importede Axios.
+      <t>1. Created 'DeleteListing' modal, a confirmation pop-up message when deleting a listing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Open Sans"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">
+- Imported Axios.
 - Added Props: id for the house ID, show to control visibility, and onClose to handle modal close events.
-- Added Methods: closeModal to close the modal and deleteListing to delete the house listing via an API call.
+- Added Methods: `closeModal` to close the modal and `deleteListing` to delete the house listing via an API call.
 - Updated 'delete button' on 'HouseDetailView' and 'HomeView' to trigger the modal and include the 'DeleteListing' component.
 - </t>
     </r>
@@ -463,9 +462,25 @@
     <t>Add 'Recommendation' section on HouseDetailView</t>
   </si>
   <si>
-    <t>- Created 'Recommendation' component
+    <r>
+      <rPr>
+        <rFont val="Open Sans"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>1. Created 'Recommendation' component, a component at the right side of 'HouseDetailView' page. It displays the recommended houses for the user.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Open Sans"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">
 - Edited the style
-- Removed the delete and edit button from HouseCard by adding a prop to control the visibility of the delete and edit buttons. Passed showButtons prop as false to hide the delete and edit buttons for the recommendations.</t>
+- Removed the delete and edit button from `HouseCard` by adding a prop to control the visibility of the delete and edit buttons. Passed showButtons prop as false to hide the delete and edit buttons for the recommendations.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Move the 'HouseDetail' section from 'HomeDetailView' to a new component
@@ -637,15 +652,15 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>1. Added a method to the search input</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Open Sans"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> to filter the houses based on the search term.
+      <t>1. Added a method to the search input to filter the houses based on the search term.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Open Sans"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">
 - Used the '.includes' method to filter houses that include keyword typed in the search bar.
 - To avoid issues when filtering, I used 'toLowerCase' method to make all keywords and houses properties lowercase.
 </t>
@@ -826,19 +841,11 @@
     <r>
       <rPr>
         <rFont val="Open Sans"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Open Sans"/>
         <b/>
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>Error: Try to fix error in sending POST request to create new listing in 'NewListing' &amp; 'TheForm'</t>
+      <t>1. Error: Try to fix error in sending POST request to create new listing in 'NewListing' &amp; 'TheForm'</t>
     </r>
     <r>
       <rPr>
@@ -979,7 +986,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t>- Installed vuex
+      <t>- Installed vuex, a global state management for Vue
 - Created store folder 
 - Imported vuex store
 - Added state for houses, mutations , actions for fetchDatafromAPI and getters
